--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="11490" windowHeight="4050"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="11490" windowHeight="4050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="プランナーからのキー仕様" sheetId="1" r:id="rId1"/>
     <sheet name="プログラマー対応表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">プログラマー対応表!$A$6:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">プログラマー対応表!$A$6:$G$52</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="165">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -342,13 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全プレイヤーをエントリーエントリー</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チームセレクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -763,6 +756,38 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装者</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -841,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -864,13 +889,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,20 +966,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -1448,7 +1540,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
@@ -1598,7 +1690,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
@@ -1606,7 +1698,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H32" t="s">
@@ -1645,7 +1737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1669,7 +1761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1801,12 +1893,12 @@
       <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1867,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F52"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1878,62 +1970,68 @@
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="4" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F2" s="8"/>
+      <c r="G2" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1946,14 +2044,17 @@
       <c r="D7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1966,14 +2067,15 @@
       <c r="D8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1984,16 +2086,17 @@
         <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2007,13 +2110,16 @@
         <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2026,14 +2132,15 @@
       <c r="D11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2046,239 +2153,251 @@
       <c r="D12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>86</v>
@@ -2286,39 +2405,41 @@
       <c r="D24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>86</v>
@@ -2326,39 +2447,41 @@
       <c r="D26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>86</v>
@@ -2366,59 +2489,64 @@
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>78</v>
@@ -2426,319 +2554,343 @@
       <c r="D31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>34</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>36</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>86</v>
@@ -2747,13 +2899,16 @@
         <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>42</v>
       </c>
@@ -2762,8 +2917,9 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>43</v>
       </c>
@@ -2772,8 +2928,9 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>44</v>
       </c>
@@ -2782,8 +2939,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -2792,8 +2950,9 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>46</v>
       </c>
@@ -2802,17 +2961,19 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:F6"/>
-  <mergeCells count="7">
-    <mergeCell ref="A2:E3"/>
+  <autoFilter ref="A6:G52"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:F3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -972,6 +972,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,13 +984,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -1959,10 +1959,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1976,40 +1977,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2018,20 +2019,20 @@
       <c r="F5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="15"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="D7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>163</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -2096,7 +2097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>24</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>40</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -2964,7 +2965,13 @@
       <c r="G52" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G52"/>
+  <autoFilter ref="A6:G52">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="×"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="A5:A6"/>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -668,18 +668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タックル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シュート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -788,6 +776,86 @@
     <t>川下</t>
     <rPh sb="0" eb="2">
       <t>カワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XBOX360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X,Y,B,A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれのボタンに割当たったキャラクターに視点を向ける</t>
+    <rPh sb="9" eb="10">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注視点の対象チーム変更（味方）</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注視点の対象チーム変更（相手）</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ（長押しでタックル）</t>
+    <rPh sb="5" eb="7">
+      <t>ナガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス（長押しでシュート）</t>
+    <rPh sb="3" eb="5">
+      <t>ナガオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1540,7 +1608,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
@@ -1959,11 +2027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1973,12 +2040,12 @@
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="7" max="7" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1986,7 +2053,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1997,7 +2064,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2014,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>70</v>
@@ -2032,7 +2099,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2046,7 +2113,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>75</v>
@@ -2097,7 +2164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2111,7 +2178,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>75</v>
@@ -2519,7 +2586,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>24</v>
       </c>
@@ -2533,10 +2600,10 @@
         <v>122</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>123</v>
@@ -2689,7 +2756,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -2703,7 +2770,7 @@
         <v>140</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>75</v>
@@ -2751,7 +2818,7 @@
         <v>80</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2772,7 +2839,7 @@
         <v>80</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2793,7 +2860,7 @@
         <v>80</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2814,10 +2881,10 @@
         <v>80</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -2831,16 +2898,16 @@
         <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -2851,10 +2918,10 @@
         <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>75</v>
@@ -2863,12 +2930,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>78</v>
@@ -2877,21 +2944,21 @@
         <v>132</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>86</v>
@@ -2900,25 +2967,35 @@
         <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>42</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
@@ -2965,13 +3042,7 @@
       <c r="G52" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:G52">
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="×"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:G52"/>
   <mergeCells count="8">
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="A5:A6"/>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="175">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -856,6 +856,32 @@
     <t>パス（長押しでシュート）</t>
     <rPh sb="3" eb="5">
       <t>ナガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2029,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2135,9 +2161,11 @@
       <c r="D8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>81</v>
@@ -2156,9 +2184,11 @@
       <c r="D9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>82</v>
@@ -2200,9 +2230,11 @@
       <c r="D11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>88</v>
@@ -2221,9 +2253,11 @@
       <c r="D12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>82</v>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="177">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -883,6 +883,17 @@
     <rPh sb="0" eb="2">
       <t>カワシタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1698,7 +1709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2055,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2612,9 +2623,11 @@
       <c r="D29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>121</v>
@@ -2656,9 +2669,11 @@
       <c r="D31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>126</v>
@@ -2761,9 +2776,11 @@
       <c r="D36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="F36" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>135</v>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="179">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -894,6 +894,17 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2066,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2799,9 +2810,11 @@
       <c r="D37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="F37" s="4" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>136</v>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="179">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2298,7 +2298,9 @@
       <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>80</v>
       </c>
@@ -2340,7 +2342,9 @@
       <c r="D15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>80</v>
       </c>
@@ -2361,7 +2365,9 @@
       <c r="D16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>80</v>
       </c>
@@ -2382,7 +2388,9 @@
       <c r="D17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>80</v>
       </c>
@@ -2424,7 +2432,9 @@
       <c r="D19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>80</v>
       </c>
@@ -2445,7 +2455,9 @@
       <c r="D20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>80</v>
       </c>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="180">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -901,6 +901,10 @@
     <rPh sb="0" eb="2">
       <t>カワシタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2078,7 +2082,7 @@
   <dimension ref="A2:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2279,7 +2283,7 @@
         <v>174</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>82</v>
@@ -2302,7 +2306,7 @@
         <v>160</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>92</v>
@@ -2346,7 +2350,7 @@
         <v>160</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>96</v>
@@ -2369,7 +2373,7 @@
         <v>160</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>99</v>
@@ -2392,7 +2396,7 @@
         <v>160</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>100</v>
@@ -2436,7 +2440,7 @@
         <v>160</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>103</v>
@@ -2459,7 +2463,7 @@
         <v>160</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>105</v>

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="188">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -752,10 +752,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装者</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -893,10 +889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>川下</t>
     <rPh sb="0" eb="2">
       <t>カワシタ</t>
@@ -909,6 +901,61 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XBOX360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ（ゲームは動いているがタイマーが止まる）</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -916,7 +963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,8 +1012,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +1043,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,6 +1162,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,6 +1188,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,69 +1691,69 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="13.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13.15">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13.15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="13.15">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="13.15">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="13.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="13.15">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1724,12 +1809,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1745,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1753,7 +1838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1777,7 +1862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1870,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1793,7 +1878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -1817,7 +1902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +1910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +1918,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1849,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1857,7 +1942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1865,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1873,7 +1958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1881,7 +1966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1897,7 +1982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1913,7 +1998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1921,7 +2006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1937,7 +2022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1945,7 +2030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1961,7 +2046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -1969,7 +2054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -1985,7 +2070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -1993,7 +2078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2001,7 +2086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2009,7 +2094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -2017,12 +2102,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8">
       <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -2030,7 +2115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2038,7 +2123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -2046,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2054,7 +2139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -2062,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2081,11 +2166,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -2095,63 +2180,63 @@
     <col min="7" max="7" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2165,7 +2250,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>75</v>
@@ -2174,7 +2259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2188,16 +2273,16 @@
         <v>79</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2211,16 +2296,16 @@
         <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2234,7 +2319,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>75</v>
@@ -2243,7 +2328,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2257,16 +2342,16 @@
         <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2280,16 +2365,16 @@
         <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -2303,7 +2388,7 @@
         <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>75</v>
@@ -2312,28 +2397,28 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -2347,7 +2432,7 @@
         <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>75</v>
@@ -2356,7 +2441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2370,7 +2455,7 @@
         <v>97</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>75</v>
@@ -2379,7 +2464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -2393,7 +2478,7 @@
         <v>138</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>75</v>
@@ -2402,28 +2487,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7">
+      <c r="A18" s="9">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -2437,7 +2522,7 @@
         <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>75</v>
@@ -2446,7 +2531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2460,7 +2545,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>75</v>
@@ -2469,7 +2554,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -2482,15 +2567,17 @@
       <c r="D21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -2503,36 +2590,38 @@
       <c r="D22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+    <row r="23" spans="1:7">
+      <c r="A23" s="9">
         <v>17</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -2545,15 +2634,17 @@
       <c r="D24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -2566,7 +2657,9 @@
       <c r="D25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="F25" s="4" t="s">
         <v>80</v>
       </c>
@@ -2574,7 +2667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -2595,49 +2688,49 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+    <row r="27" spans="1:7">
+      <c r="A27" s="18">
         <v>21</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:7">
+      <c r="A28" s="21">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -2651,16 +2744,16 @@
         <v>120</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>24</v>
       </c>
@@ -2674,16 +2767,16 @@
         <v>122</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -2697,16 +2790,16 @@
         <v>87</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>26</v>
       </c>
@@ -2727,7 +2820,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>27</v>
       </c>
@@ -2748,7 +2841,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>28</v>
       </c>
@@ -2769,7 +2862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>29</v>
       </c>
@@ -2790,7 +2883,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -2804,7 +2897,7 @@
         <v>134</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>75</v>
@@ -2813,7 +2906,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>31</v>
       </c>
@@ -2827,16 +2920,16 @@
         <v>137</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -2850,7 +2943,7 @@
         <v>140</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>75</v>
@@ -2859,7 +2952,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -2872,36 +2965,38 @@
       <c r="D39" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="F39" s="4" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+    <row r="40" spans="1:7">
+      <c r="A40" s="9">
         <v>34</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G40" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>35</v>
       </c>
@@ -2914,36 +3009,38 @@
       <c r="D41" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="F41" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9">
+        <v>36</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <v>36</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G42" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>37</v>
       </c>
@@ -2956,15 +3053,17 @@
       <c r="D43" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="F43" s="4" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -2978,7 +3077,7 @@
         <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>146</v>
@@ -2987,7 +3086,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -3001,16 +3100,16 @@
         <v>148</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>40</v>
       </c>
@@ -3024,16 +3123,16 @@
         <v>132</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -3047,48 +3146,62 @@
         <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="3">
         <v>42</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>43</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3">
         <v>44</v>
       </c>
@@ -3099,7 +3212,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -3110,7 +3223,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <v>46</v>
       </c>
@@ -3135,6 +3248,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="190">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -590,15 +590,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ctrl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タックル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Alt</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -911,10 +903,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -956,6 +944,29 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川下</t>
+    <rPh sb="0" eb="2">
+      <t>カワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Space</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1168,6 +1179,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,18 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1698,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.15">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.15">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1745,10 +1756,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.15">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1785,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.15">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2166,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2181,60 +2192,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
@@ -2250,7 +2261,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>75</v>
@@ -2273,10 +2284,10 @@
         <v>79</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>81</v>
@@ -2293,13 +2304,13 @@
         <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>82</v>
@@ -2319,7 +2330,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>75</v>
@@ -2342,10 +2353,10 @@
         <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>88</v>
@@ -2365,10 +2376,10 @@
         <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>82</v>
@@ -2388,7 +2399,7 @@
         <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>75</v>
@@ -2432,7 +2443,7 @@
         <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>75</v>
@@ -2455,7 +2466,7 @@
         <v>97</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>75</v>
@@ -2475,10 +2486,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>75</v>
@@ -2498,7 +2509,7 @@
         <v>78</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
@@ -2522,7 +2533,7 @@
         <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>75</v>
@@ -2545,7 +2556,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>75</v>
@@ -2565,13 +2576,13 @@
         <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>106</v>
@@ -2591,10 +2602,10 @@
         <v>108</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>111</v>
@@ -2635,10 +2646,10 @@
         <v>84</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>113</v>
@@ -2658,7 +2669,7 @@
         <v>114</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>80</v>
@@ -2689,44 +2700,44 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18">
+      <c r="A27" s="11">
         <v>21</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="D27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21">
+      <c r="A28" s="14">
         <v>22</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2744,10 +2755,10 @@
         <v>120</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>121</v>
@@ -2767,10 +2778,10 @@
         <v>122</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>123</v>
@@ -2790,10 +2801,10 @@
         <v>87</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>126</v>
@@ -2812,9 +2823,11 @@
       <c r="D32" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>125</v>
@@ -2831,14 +2844,16 @@
         <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2852,14 +2867,16 @@
         <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="F34" s="5" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2873,14 +2890,16 @@
         <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="F35" s="4" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2894,16 +2913,16 @@
         <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2917,16 +2936,16 @@
         <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2940,10 +2959,10 @@
         <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>75</v>
@@ -2966,10 +2985,10 @@
         <v>114</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>126</v>
@@ -2986,14 +3005,14 @@
         <v>86</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3007,16 +3026,16 @@
         <v>86</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3030,14 +3049,14 @@
         <v>86</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3051,16 +3070,16 @@
         <v>86</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3068,7 +3087,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>86</v>
@@ -3077,13 +3096,13 @@
         <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3097,16 +3116,16 @@
         <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3114,22 +3133,22 @@
         <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3137,7 +3156,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>86</v>
@@ -3146,13 +3165,13 @@
         <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3160,22 +3179,22 @@
         <v>42</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3183,22 +3202,22 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7">

--- a/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
+++ b/プログラマ用資料/操作キー対応表[2014.10.29].xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="192">
   <si>
     <t>-- 操作キー対応表 ----------------------------------</t>
   </si>
@@ -480,26 +480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チーム切り替え 1P or 3P</t>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニフォーム切り替え 1P or 3P</t>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チーム決定 1P or 3P</t>
     <rPh sb="3" eb="5">
       <t>ケッテイ</t>
@@ -511,10 +491,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チームキャンセル 1P or 3P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セットアップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -967,6 +943,41 @@
   </si>
   <si>
     <t>Space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームキャンセル 2P or 3P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニフォーム切り替え 1P or 4P</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム切り替え 1P or 4P</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1756,7 +1767,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2177,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2193,7 +2204,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2201,7 +2212,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2212,7 +2223,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2229,7 +2240,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>70</v>
@@ -2261,7 +2272,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>75</v>
@@ -2284,10 +2295,10 @@
         <v>79</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>81</v>
@@ -2304,13 +2315,13 @@
         <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>82</v>
@@ -2330,7 +2341,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>75</v>
@@ -2353,10 +2364,10 @@
         <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>88</v>
@@ -2376,10 +2387,10 @@
         <v>89</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>82</v>
@@ -2399,7 +2410,7 @@
         <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>75</v>
@@ -2443,7 +2454,7 @@
         <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>75</v>
@@ -2466,7 +2477,7 @@
         <v>97</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>75</v>
@@ -2486,10 +2497,10 @@
         <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>75</v>
@@ -2509,7 +2520,7 @@
         <v>78</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
@@ -2533,7 +2544,7 @@
         <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>75</v>
@@ -2556,7 +2567,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>75</v>
@@ -2576,13 +2587,13 @@
         <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>106</v>
@@ -2602,13 +2613,13 @@
         <v>108</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2629,7 +2640,7 @@
         <v>110</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2646,13 +2657,13 @@
         <v>84</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2666,16 +2677,16 @@
         <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2691,7 +2702,9 @@
       <c r="D26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="F26" s="5" t="s">
         <v>80</v>
       </c>
@@ -2704,20 +2717,20 @@
         <v>21</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2725,7 +2738,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>86</v>
@@ -2738,7 +2751,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2746,22 +2759,22 @@
         <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2769,22 +2782,22 @@
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2792,7 +2805,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>78</v>
@@ -2801,13 +2814,13 @@
         <v>87</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2815,22 +2828,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2838,22 +2851,22 @@
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2861,22 +2874,22 @@
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2884,22 +2897,22 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2907,22 +2920,22 @@
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2930,22 +2943,22 @@
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2953,22 +2966,22 @@
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2976,22 +2989,22 @@
         <v>33</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2999,20 +3012,20 @@
         <v>34</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3020,22 +3033,22 @@
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3043,20 +3056,20 @@
         <v>36</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3064,22 +3077,22 @@
         <v>37</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3087,7 +3100,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>86</v>
@@ -3096,13 +3109,13 @@
         <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3110,22 +3123,22 @@
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3133,22 +3146,22 @@
         <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3156,7 +3169,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>86</v>
@@ -3165,13 +3178,13 @@
         <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3179,22 +3192,22 @@
         <v>42</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3202,22 +3215,22 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:7">
